--- a/docs/mcode/shr-lab-CBCWAutoDifferentialPanel.xlsx
+++ b/docs/mcode/shr-lab-CBCWAutoDifferentialPanel.xlsx
@@ -150,8 +150,8 @@
     <t>shr-lab-CBCWAutoDifferentialPanel</t>
   </si>
   <si>
-    <t>Complete blood count (CBC) with auto differential panel. Includes various measures of red blood cells, platelets, and various types of white blood cells and other related measures, such as hemoglobin. The components of this panel are not entirely standardized, so the definition of the CBC includes tests that are optional, or performed by certain laboratories but not others. Therefore, instances typically will include a subset of the listed panel members. While recognizing scalability limitations, in this case, panel member is described by its own FHIR profile.
-Note to FHIR implementers: The Argonaut and US Core IGs both state that panels (related groups of observations) should be represented by the DiagnosticReport resource. mCODE deviates from this approach by using Observation for panels. This is because panels can contain other panels, but a DiagnosticReport cannot contain other DiagnosticReports. Nested panels are, in fact, quite common in LOINC (see 39135-9 Wound assessment panel for an example of a deeply nested panel). To represent nested panels, the each sub-panel _must be_ an Observation. Of course, any sub-panel can also be a stand-alone panel, as well. Following the Argonaut/US Core recommended approach of using DiagnosticReport would imply that many or perhaps all panels would have to be represented twice: once as an Observation to permit the panel to be used as a sub-panel, and once as a DiagnosticReport to permit it to be used as a top-level panel. The mCODE authors believe there is little added value in representing panels as DiagnosticReports when Observation provides additional opportunity for nesting, and equivalent expressive power.</t>
+    <t>Complete blood count (CBC) with auto differential panel. Includes various measures of red blood cells, platelets, and various types of white blood cells and other related measures, such as hemoglobin. The components of this panel are not entirely standardized, so the definition of the CBC includes tests that are optional, or performed by certain laboratories but not others. Instances typically will include a subset of the listed panel members. While recognizing scalability limitations, in this case, panel member is described by its own FHIR profile.
+Note to FHIR implementers: The Argonaut and US Core IGs both state that panels (related groups of observations) should be represented by the DiagnosticReport resource. This specification deviates from this approach by using Observation for panels. This is because panels can contain other panels, but a DiagnosticReport cannot contain other DiagnosticReports. Nested panels are, in fact, quite common in LOINC (see 39135-9 Wound assessment panel for an example of a deeply nested panel). To represent nested panels, the each sub-panel _must be_ an Observation. Of course, any sub-panel can also be a stand-alone panel, as well. Following the Argonaut/US Core recommended approach of using DiagnosticReport would imply that many or perhaps all panels would have to be represented twice: once as an Observation to permit the panel to be used as a sub-panel, and once as a DiagnosticReport to permit it to be used as a top-level panel. The specification authors believe there is little added value in representing panels as DiagnosticReports when Observation provides additional opportunity for nesting, and equivalent expressive power.</t>
   </si>
   <si>
     <t>Used for simple observations such as device measurements, laboratory atomic results, vital signs, height, weight, smoking status, comments, etc.  Other resources are used to provide context for observations such as lab reports, etc.</t>
@@ -797,7 +797,7 @@
     <t>Observation.performer</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-Practitioner]]}
+    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-Practitioner], CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-Organization]]}
 </t>
   </si>
   <si>
@@ -1177,10 +1177,10 @@
     <t>outBoundRelationship</t>
   </si>
   <si>
-    <t>shr-lab-LOINC-6690-2</t>
-  </si>
-  <si>
-    <t>LOINC-6690-2</t>
+    <t>shr-lab-LeukocytesNCncPtBldQnAutoCntLabObs</t>
+  </si>
+  <si>
+    <t>LeukocytesNCncPtBldQnAutoCntLabObs</t>
   </si>
   <si>
     <t>Leukocytes [#/​volume] in Blood by Automated count</t>
@@ -1225,7 +1225,7 @@
     <t>Observation.related.target</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-lab-LOINC-6690-2]]}
+    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-lab-LeukocytesNCncPtBldQnAutoCntLabObs]]}
 </t>
   </si>
   <si>
@@ -1238,614 +1238,614 @@
     <t>.targetObservation</t>
   </si>
   <si>
-    <t>shr-lab-LOINC-789-8</t>
-  </si>
-  <si>
-    <t>LOINC-789-8</t>
+    <t>shr-lab-ErythrocytesNCncPtBldQnAutoCntLabObs</t>
+  </si>
+  <si>
+    <t>ErythrocytesNCncPtBldQnAutoCntLabObs</t>
   </si>
   <si>
     <t>Erythrocytes [#/​volume] in Blood by Automated count.</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-lab-LOINC-789-8]]}
+    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-lab-ErythrocytesNCncPtBldQnAutoCntLabObs]]}
 </t>
   </si>
   <si>
-    <t>shr-lab-LOINC-718-7</t>
-  </si>
-  <si>
-    <t>LOINC-718-7</t>
+    <t>shr-lab-HemoglobinMCncPtBldQnLabObs</t>
+  </si>
+  <si>
+    <t>HemoglobinMCncPtBldQnLabObs</t>
   </si>
   <si>
     <t>Hemoglobin [Mass/​volume] in Blood</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-lab-LOINC-718-7]]}
+    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-lab-HemoglobinMCncPtBldQnLabObs]]}
 </t>
   </si>
   <si>
-    <t>shr-lab-LOINC-4544-3</t>
-  </si>
-  <si>
-    <t>LOINC-4544-3</t>
+    <t>shr-lab-HematocritVFrPtBldQnAutoCntLabObs</t>
+  </si>
+  <si>
+    <t>HematocritVFrPtBldQnAutoCntLabObs</t>
   </si>
   <si>
     <t>Hematocrit [Volume Fraction] of Blood by Automated count</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-lab-LOINC-4544-3]]}
+    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-lab-HematocritVFrPtBldQnAutoCntLabObs]]}
 </t>
   </si>
   <si>
-    <t>shr-lab-LOINC-787-2</t>
-  </si>
-  <si>
-    <t>LOINC-787-2</t>
+    <t>shr-lab-MeanCorpuscularVolumeEntVolPtRBCQnAutoCntLabObs</t>
+  </si>
+  <si>
+    <t>MeanCorpuscularVolumeEntVolPtRBCQnAutoCntLabObs</t>
   </si>
   <si>
     <t>MCV [Entitic volume] by Automated count</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-lab-LOINC-787-2]]}
+    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-lab-MeanCorpuscularVolumeEntVolPtRBCQnAutoCntLabObs]]}
 </t>
   </si>
   <si>
-    <t>shr-lab-LOINC-785-6</t>
-  </si>
-  <si>
-    <t>LOINC-785-6</t>
+    <t>shr-lab-ErythrocyteMCHEntMassPtRBCQnAutoCntLabObs</t>
+  </si>
+  <si>
+    <t>ErythrocyteMCHEntMassPtRBCQnAutoCntLabObs</t>
   </si>
   <si>
     <t>MCH [Entitic mass] by Automated count</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-lab-LOINC-785-6]]}
+    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-lab-ErythrocyteMCHEntMassPtRBCQnAutoCntLabObs]]}
 </t>
   </si>
   <si>
-    <t>shr-lab-LOINC-786-4</t>
-  </si>
-  <si>
-    <t>LOINC-786-4</t>
+    <t>shr-lab-ErythrocyteMCHCMCncPtRBCQnAutoCntLabObs</t>
+  </si>
+  <si>
+    <t>ErythrocyteMCHCMCncPtRBCQnAutoCntLabObs</t>
   </si>
   <si>
     <t>MCHC [Mass/​volume] by Automated count</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-lab-LOINC-786-4]]}
+    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-lab-ErythrocyteMCHCMCncPtRBCQnAutoCntLabObs]]}
 </t>
   </si>
   <si>
-    <t>shr-lab-LOINC-777-3</t>
-  </si>
-  <si>
-    <t>LOINC-777-3</t>
+    <t>shr-lab-PlateletsNCncPtBldQnAutoCntLabObs</t>
+  </si>
+  <si>
+    <t>PlateletsNCncPtBldQnAutoCntLabObs</t>
   </si>
   <si>
     <t>Platelets [#/​volume] in Blood by Automated count</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-lab-LOINC-777-3]]}
+    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-lab-PlateletsNCncPtBldQnAutoCntLabObs]]}
 </t>
   </si>
   <si>
-    <t>shr-lab-LOINC-770-8</t>
-  </si>
-  <si>
-    <t>LOINC-770-8</t>
+    <t>shr-lab-Neutrophils100WBCNFrPtBldQnAutoCntLabObs</t>
+  </si>
+  <si>
+    <t>Neutrophils100WBCNFrPtBldQnAutoCntLabObs</t>
   </si>
   <si>
     <t>Neutrophils/​100 leukocytes in Blood by Automated count</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-lab-LOINC-770-8]]}
+    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-lab-Neutrophils100WBCNFrPtBldQnAutoCntLabObs]]}
 </t>
   </si>
   <si>
-    <t>shr-lab-LOINC-751-8</t>
-  </si>
-  <si>
-    <t>LOINC-751-8</t>
+    <t>shr-lab-NeutrophilsNCncPtBldQnAutoCntLabObs</t>
+  </si>
+  <si>
+    <t>NeutrophilsNCncPtBldQnAutoCntLabObs</t>
   </si>
   <si>
     <t>Neutrophils [#/​volume] in Blood by Automated count</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-lab-LOINC-751-8]]}
+    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-lab-NeutrophilsNCncPtBldQnAutoCntLabObs]]}
 </t>
   </si>
   <si>
-    <t>shr-lab-LOINC-788-0</t>
-  </si>
-  <si>
-    <t>LOINC-788-0</t>
+    <t>shr-lab-ErythrocyteDistributionWidthRatioPtRBCQnAutoCntLabObs</t>
+  </si>
+  <si>
+    <t>ErythrocyteDistributionWidthRatioPtRBCQnAutoCntLabObs</t>
   </si>
   <si>
     <t>Erythrocyte distribution width [Ratio] by Automated count</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-lab-LOINC-788-0]]}
+    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-lab-ErythrocyteDistributionWidthRatioPtRBCQnAutoCntLabObs]]}
 </t>
   </si>
   <si>
-    <t>shr-lab-LOINC-736-9</t>
-  </si>
-  <si>
-    <t>LOINC-736-9</t>
+    <t>shr-lab-Lymphocytes100WBCNFrPtBldQnAutoCntLabObs</t>
+  </si>
+  <si>
+    <t>Lymphocytes100WBCNFrPtBldQnAutoCntLabObs</t>
   </si>
   <si>
     <t>Lymphocytes/​100 leukocytes in Blood by Automated count</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-lab-LOINC-736-9]]}
+    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-lab-Lymphocytes100WBCNFrPtBldQnAutoCntLabObs]]}
 </t>
   </si>
   <si>
-    <t>shr-lab-LOINC-5905-5</t>
-  </si>
-  <si>
-    <t>LOINC-5905-5</t>
+    <t>shr-lab-Monocytes100WBCNFrPtBldQnAutoCntLabObs</t>
+  </si>
+  <si>
+    <t>Monocytes100WBCNFrPtBldQnAutoCntLabObs</t>
   </si>
   <si>
     <t>Monocytes/​100 leukocytes in Blood by Automated count</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-lab-LOINC-5905-5]]}
+    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-lab-Monocytes100WBCNFrPtBldQnAutoCntLabObs]]}
 </t>
   </si>
   <si>
-    <t>shr-lab-LOINC-713-8</t>
-  </si>
-  <si>
-    <t>LOINC-713-8</t>
+    <t>shr-lab-Eosinophils100WBCNFrPtBldQnAutoCntLabObs</t>
+  </si>
+  <si>
+    <t>Eosinophils100WBCNFrPtBldQnAutoCntLabObs</t>
   </si>
   <si>
     <t>Eosinophils/​100 leukocytes in Blood by Automated count</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-lab-LOINC-713-8]]}
+    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-lab-Eosinophils100WBCNFrPtBldQnAutoCntLabObs]]}
 </t>
   </si>
   <si>
-    <t>shr-lab-LOINC-706-2</t>
-  </si>
-  <si>
-    <t>LOINC-706-2</t>
+    <t>shr-lab-Basophils100WBCNFrPtBldQnAutoCntLabObs</t>
+  </si>
+  <si>
+    <t>Basophils100WBCNFrPtBldQnAutoCntLabObs</t>
   </si>
   <si>
     <t>Basophils/​100 leukocytes in Blood by Automated count</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-lab-LOINC-706-2]]}
+    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-lab-Basophils100WBCNFrPtBldQnAutoCntLabObs]]}
 </t>
   </si>
   <si>
-    <t>shr-lab-LOINC-731-0</t>
-  </si>
-  <si>
-    <t>LOINC-731-0</t>
+    <t>shr-lab-LymphocytesNCncPtBldQnAutoCntLabObs</t>
+  </si>
+  <si>
+    <t>LymphocytesNCncPtBldQnAutoCntLabObs</t>
   </si>
   <si>
     <t>Lymphocytes [#/​volume] in Blood by Automated count</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-lab-LOINC-731-0]]}
+    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-lab-LymphocytesNCncPtBldQnAutoCntLabObs]]}
 </t>
   </si>
   <si>
-    <t>shr-lab-LOINC-742-7</t>
-  </si>
-  <si>
-    <t>LOINC-742-7</t>
+    <t>shr-lab-MonocytesNCncPtBldQnAutoCntLabObs</t>
+  </si>
+  <si>
+    <t>MonocytesNCncPtBldQnAutoCntLabObs</t>
   </si>
   <si>
     <t>Monocytes [#/​volume] in Blood by Automated count</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-lab-LOINC-742-7]]}
+    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-lab-MonocytesNCncPtBldQnAutoCntLabObs]]}
 </t>
   </si>
   <si>
-    <t>shr-lab-LOINC-711-2</t>
-  </si>
-  <si>
-    <t>LOINC-711-2</t>
+    <t>shr-lab-EosinophilsNCncPtBldQnAutoCntLabObs</t>
+  </si>
+  <si>
+    <t>EosinophilsNCncPtBldQnAutoCntLabObs</t>
   </si>
   <si>
     <t>Eosinophils [#/​volume] in Blood by Automated count</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-lab-LOINC-711-2]]}
+    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-lab-EosinophilsNCncPtBldQnAutoCntLabObs]]}
 </t>
   </si>
   <si>
-    <t>shr-lab-LOINC-704-7</t>
-  </si>
-  <si>
-    <t>LOINC-704-7</t>
+    <t>shr-lab-BasophilsNCncPtBldQnAutoCntLabObs</t>
+  </si>
+  <si>
+    <t>BasophilsNCncPtBldQnAutoCntLabObs</t>
   </si>
   <si>
     <t>Basophils [#/​volume] in Blood by Automated count</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-lab-LOINC-704-7]]}
+    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-lab-BasophilsNCncPtBldQnAutoCntLabObs]]}
 </t>
   </si>
   <si>
-    <t>shr-lab-LOINC-764-1</t>
-  </si>
-  <si>
-    <t>LOINC-764-1</t>
+    <t>shr-lab-NeutrophilsBandForm100WBCNFrPtBldQnManCntLabObs</t>
+  </si>
+  <si>
+    <t>NeutrophilsBandForm100WBCNFrPtBldQnManCntLabObs</t>
   </si>
   <si>
     <t>Band form neutrophils/100 leukocytes in Blood by Manual count</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-lab-LOINC-764-1]]}
+    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-lab-NeutrophilsBandForm100WBCNFrPtBldQnManCntLabObs]]}
 </t>
   </si>
   <si>
-    <t>shr-lab-LOINC-740-1</t>
-  </si>
-  <si>
-    <t>LOINC-740-1</t>
+    <t>shr-lab-Metamyelocytes100WBCNFrPtBldQnManCntLabObs</t>
+  </si>
+  <si>
+    <t>Metamyelocytes100WBCNFrPtBldQnManCntLabObs</t>
   </si>
   <si>
     <t>Metamyelocytes/100 leukocytes in Blood by Manual count</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-lab-LOINC-740-1]]}
+    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-lab-Metamyelocytes100WBCNFrPtBldQnManCntLabObs]]}
 </t>
   </si>
   <si>
-    <t>shr-lab-LOINC-749-2</t>
-  </si>
-  <si>
-    <t>LOINC-749-2</t>
+    <t>shr-lab-Myelocytes100WBCNFrPtBldQnManCntLabObs</t>
+  </si>
+  <si>
+    <t>Myelocytes100WBCNFrPtBldQnManCntLabObs</t>
   </si>
   <si>
     <t>Myelocytes/100 leukocytes in Blood by Manual count</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-lab-LOINC-749-2]]}
+    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-lab-Myelocytes100WBCNFrPtBldQnManCntLabObs]]}
 </t>
   </si>
   <si>
-    <t>shr-lab-LOINC-783-1</t>
-  </si>
-  <si>
-    <t>LOINC-783-1</t>
+    <t>shr-lab-Promyelocytes100WBCNFrPtBldQnManCntLabObs</t>
+  </si>
+  <si>
+    <t>Promyelocytes100WBCNFrPtBldQnManCntLabObs</t>
   </si>
   <si>
     <t>Promyelocytes/100 leukocytes in Blood by Manual count</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-lab-LOINC-783-1]]}
+    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-lab-Promyelocytes100WBCNFrPtBldQnManCntLabObs]]}
 </t>
   </si>
   <si>
-    <t>shr-lab-LOINC-26523-1</t>
-  </si>
-  <si>
-    <t>LOINC-26523-1</t>
+    <t>shr-lab-PromyelocytesNCncPtBldQnLabObs</t>
+  </si>
+  <si>
+    <t>PromyelocytesNCncPtBldQnLabObs</t>
   </si>
   <si>
     <t>Promyelocytes [#/volume] in Blood</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-lab-LOINC-26523-1]]}
+    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-lab-PromyelocytesNCncPtBldQnLabObs]]}
 </t>
   </si>
   <si>
-    <t>shr-lab-LOINC-13046-8</t>
-  </si>
-  <si>
-    <t>LOINC-13046-8</t>
+    <t>shr-lab-LymphocytesVariant100WBCNFrPtBldQnLabObs</t>
+  </si>
+  <si>
+    <t>LymphocytesVariant100WBCNFrPtBldQnLabObs</t>
   </si>
   <si>
     <t>Variant lymphocytes/100 leukocytes in Blood</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-lab-LOINC-13046-8]]}
+    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-lab-LymphocytesVariant100WBCNFrPtBldQnLabObs]]}
 </t>
   </si>
   <si>
-    <t>shr-lab-LOINC-709-6</t>
-  </si>
-  <si>
-    <t>LOINC-709-6</t>
+    <t>shr-lab-Blasts100WBCNFrPtBldQnManCntLabObs</t>
+  </si>
+  <si>
+    <t>Blasts100WBCNFrPtBldQnManCntLabObs</t>
   </si>
   <si>
     <t>Blasts/100 leukocytes in Blood by Manual count</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-lab-LOINC-709-6]]}
+    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-lab-Blasts100WBCNFrPtBldQnManCntLabObs]]}
 </t>
   </si>
   <si>
-    <t>shr-lab-LOINC-30376-8</t>
-  </si>
-  <si>
-    <t>LOINC-30376-8</t>
+    <t>shr-lab-BlastsNCncPtBldQnLabObs</t>
+  </si>
+  <si>
+    <t>BlastsNCncPtBldQnLabObs</t>
   </si>
   <si>
     <t>Blasts [#/volume] in Blood. Units not required by LOINC but are strongly recommended.</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-lab-LOINC-30376-8]]}
+    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-lab-BlastsNCncPtBldQnLabObs]]}
 </t>
   </si>
   <si>
-    <t>shr-lab-LOINC-19048-8</t>
-  </si>
-  <si>
-    <t>LOINC-19048-8</t>
+    <t>shr-lab-ErythrocytesNucleated100WBCRatioPtBldQnLabObs</t>
+  </si>
+  <si>
+    <t>ErythrocytesNucleated100WBCRatioPtBldQnLabObs</t>
   </si>
   <si>
     <t>Nucleated erythrocytes/100 leukocytes [Ratio] in Blood.  Units are required.</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-lab-LOINC-19048-8]]}
+    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-lab-ErythrocytesNucleated100WBCRatioPtBldQnLabObs]]}
 </t>
   </si>
   <si>
-    <t>shr-lab-LOINC-30392-5</t>
-  </si>
-  <si>
-    <t>LOINC-30392-5</t>
+    <t>shr-lab-ErythrocytesNucleatedNCncPtBldQnLabObs</t>
+  </si>
+  <si>
+    <t>ErythrocytesNucleatedNCncPtBldQnLabObs</t>
   </si>
   <si>
     <t>Nucleated erythrocytes [#/volume] in Blood. Units not required by LOINC but are strongly recommended.</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-lab-LOINC-30392-5]]}
+    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-lab-ErythrocytesNucleatedNCncPtBldQnLabObs]]}
 </t>
   </si>
   <si>
-    <t>shr-lab-LOINC-776-5</t>
-  </si>
-  <si>
-    <t>LOINC-776-5</t>
+    <t>shr-lab-PlateletMeanVolumeEntVolPtBldQnReesEckerLabObs</t>
+  </si>
+  <si>
+    <t>PlateletMeanVolumeEntVolPtBldQnReesEckerLabObs</t>
   </si>
   <si>
     <t>Platelet mean volume [Entitic volume] in Blood by Rees-Ecker.</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-lab-LOINC-776-5]]}
+    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-lab-PlateletMeanVolumeEntVolPtBldQnReesEckerLabObs]]}
 </t>
   </si>
   <si>
-    <t>shr-lab-LOINC-30446-9</t>
-  </si>
-  <si>
-    <t>LOINC-30446-9</t>
+    <t>shr-lab-MyelocytesNCncPtBldQnLabObs</t>
+  </si>
+  <si>
+    <t>MyelocytesNCncPtBldQnLabObs</t>
   </si>
   <si>
     <t>Myelocytes [#/volume] in Blood. Units not required by LOINC but are strongly recommended.</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-lab-LOINC-30446-9]]}
+    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-lab-MyelocytesNCncPtBldQnLabObs]]}
 </t>
   </si>
   <si>
-    <t>shr-lab-LOINC-30433-7</t>
-  </si>
-  <si>
-    <t>LOINC-30433-7</t>
+    <t>shr-lab-MetamyelocytesNCncPtBldQnLabObs</t>
+  </si>
+  <si>
+    <t>MetamyelocytesNCncPtBldQnLabObs</t>
   </si>
   <si>
     <t>Metamyelocytes [#/volume] in Blood</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-lab-LOINC-30433-7]]}
+    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-lab-MetamyelocytesNCncPtBldQnLabObs]]}
 </t>
   </si>
   <si>
-    <t>shr-lab-LOINC-26507-4</t>
-  </si>
-  <si>
-    <t>LOINC-26507-4</t>
+    <t>shr-lab-NeutrophilsBandFormNCncPtBldQnLabObs</t>
+  </si>
+  <si>
+    <t>NeutrophilsBandFormNCncPtBldQnLabObs</t>
   </si>
   <si>
     <t>Band form neutrophils [#/volume] in Blood</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-lab-LOINC-26507-4]]}
+    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-lab-NeutrophilsBandFormNCncPtBldQnLabObs]]}
 </t>
   </si>
   <si>
-    <t>shr-lab-LOINC-71695-1</t>
-  </si>
-  <si>
-    <t>LOINC-71695-1</t>
+    <t>shr-lab-GranulocytesImmature100WBCNFrPtBldQnAutoCntLabObs</t>
+  </si>
+  <si>
+    <t>GranulocytesImmature100WBCNFrPtBldQnAutoCntLabObs</t>
   </si>
   <si>
     <t>Immature granulocytes/100 leukocytes in Blood by Automated count. LOINC does not specify that units are required.</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-lab-LOINC-71695-1]]}
+    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-lab-GranulocytesImmature100WBCNFrPtBldQnAutoCntLabObs]]}
 </t>
   </si>
   <si>
-    <t>shr-lab-LOINC-53115-2</t>
-  </si>
-  <si>
-    <t>LOINC-53115-2</t>
+    <t>shr-lab-GranulocytesImmatureNCncPtBldQnAutoCntLabObs</t>
+  </si>
+  <si>
+    <t>GranulocytesImmatureNCncPtBldQnAutoCntLabObs</t>
   </si>
   <si>
     <t>Immature granulocytes [#/volume] in Blood by Automated count. Units are not required</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-lab-LOINC-53115-2]]}
+    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-lab-GranulocytesImmatureNCncPtBldQnAutoCntLabObs]]}
 </t>
   </si>
   <si>
-    <t>shr-lab-LOINC-58413-6</t>
-  </si>
-  <si>
-    <t>LOINC-58413-6</t>
+    <t>shr-lab-ErythrocytesNucleated100WBCRatioPtBldQnAutoCntLabObs</t>
+  </si>
+  <si>
+    <t>ErythrocytesNucleated100WBCRatioPtBldQnAutoCntLabObs</t>
   </si>
   <si>
     <t>Nucleated erythrocytes/100 leukocytes [Ratio] in Blood by Automated count. Units not required by LOINC but are strongly recommended.</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-lab-LOINC-58413-6]]}
+    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-lab-ErythrocytesNucleated100WBCRatioPtBldQnAutoCntLabObs]]}
 </t>
   </si>
   <si>
-    <t>shr-lab-LOINC-18314-5</t>
-  </si>
-  <si>
-    <t>LOINC-18314-5</t>
+    <t>shr-lab-MorphologyImpPtBldNarLabObs</t>
+  </si>
+  <si>
+    <t>MorphologyImpPtBldNarLabObs</t>
   </si>
   <si>
     <t>Morphology [Interpretation] in Blood Narrative.</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-lab-LOINC-18314-5]]}
+    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-lab-MorphologyImpPtBldNarLabObs]]}
 </t>
   </si>
   <si>
-    <t>shr-lab-LOINC-21000-5</t>
-  </si>
-  <si>
-    <t>LOINC-21000-5</t>
+    <t>shr-lab-ErythrocyteDistributionWidthEntVolPtRBCQnLabObs</t>
+  </si>
+  <si>
+    <t>ErythrocyteDistributionWidthEntVolPtRBCQnLabObs</t>
   </si>
   <si>
     <t>Erythrocyte distribution width [Entitic volume] by Automated count</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-lab-LOINC-21000-5]]}
+    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-lab-ErythrocyteDistributionWidthEntVolPtRBCQnLabObs]]}
 </t>
   </si>
   <si>
-    <t>shr-lab-LOINC-32207-3</t>
-  </si>
-  <si>
-    <t>LOINC-32207-3</t>
+    <t>shr-lab-PlateletDistributionWidthEntVolPtBldQnAutoCntLabObs</t>
+  </si>
+  <si>
+    <t>PlateletDistributionWidthEntVolPtBldQnAutoCntLabObs</t>
   </si>
   <si>
     <t>Platelet distribution width [Entitic volume] in Blood by Automated count. Units not required by LOINC but are strongly recommended.</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-lab-LOINC-32207-3]]}
+    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-lab-PlateletDistributionWidthEntVolPtBldQnAutoCntLabObs]]}
 </t>
   </si>
   <si>
-    <t>shr-lab-LOINC-32623-1</t>
-  </si>
-  <si>
-    <t>LOINC-32623-1</t>
+    <t>shr-lab-PlateletMeanVolumeEntVolPtBldQnAutoCntLabObs</t>
+  </si>
+  <si>
+    <t>PlateletMeanVolumeEntVolPtBldQnAutoCntLabObs</t>
   </si>
   <si>
     <t>Platelet mean volume [Entitic volume] in Blood by Automated count. Units not required by LOINC but are strongly recommended.</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-lab-LOINC-32623-1]]}
+    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-lab-PlateletMeanVolumeEntVolPtBldQnAutoCntLabObs]]}
 </t>
   </si>
   <si>
-    <t>shr-lab-LOINC-35332-6</t>
-  </si>
-  <si>
-    <t>LOINC-35332-6</t>
+    <t>shr-lab-NeutrophilsBandForm100WBCNFrPtBldQnAutoCntLabObs</t>
+  </si>
+  <si>
+    <t>NeutrophilsBandForm100WBCNFrPtBldQnAutoCntLabObs</t>
   </si>
   <si>
     <t>Band form neutrophils/​100 leukocytes in Blood by Automated count. Units not required by LOINC but are strongly recommended.</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-lab-LOINC-35332-6]]}
+    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-lab-NeutrophilsBandForm100WBCNFrPtBldQnAutoCntLabObs]]}
 </t>
   </si>
   <si>
-    <t>shr-lab-LOINC-19023-1</t>
-  </si>
-  <si>
-    <t>LOINC-19023-1</t>
+    <t>shr-lab-Granulocytes100WBCNFrPtBldQnAutoCntLabObs</t>
+  </si>
+  <si>
+    <t>Granulocytes100WBCNFrPtBldQnAutoCntLabObs</t>
   </si>
   <si>
     <t>Granulocytes/​100 leukocytes in Blood by Automated count</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-lab-LOINC-19023-1]]}
+    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-lab-Granulocytes100WBCNFrPtBldQnAutoCntLabObs]]}
 </t>
   </si>
   <si>
-    <t>shr-lab-LOINC-42250-1</t>
-  </si>
-  <si>
-    <t>LOINC-42250-1</t>
+    <t>shr-lab-LymphocytesVariant100WBCNFrPtBldQnAutoCntLabObs</t>
+  </si>
+  <si>
+    <t>LymphocytesVariant100WBCNFrPtBldQnAutoCntLabObs</t>
   </si>
   <si>
     <t>Variant lymphocytes/​100 leukocytes in Blood by Automated count. Units not required by LOINC but are strongly recommended.</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-lab-LOINC-42250-1]]}
+    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-lab-LymphocytesVariant100WBCNFrPtBldQnAutoCntLabObs]]}
 </t>
   </si>
   <si>
-    <t>shr-lab-LOINC-58409-4</t>
-  </si>
-  <si>
-    <t>LOINC-58409-4</t>
+    <t>shr-lab-OtherCells100WBCNFrPtBldQnAutoCntLabObs</t>
+  </si>
+  <si>
+    <t>OtherCells100WBCNFrPtBldQnAutoCntLabObs</t>
   </si>
   <si>
     <t>Other cells/​100 leukocytes in Blood by Automated count. Units not required by LOINC but are strongly recommended.</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-lab-LOINC-58409-4]]}
+    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-lab-OtherCells100WBCNFrPtBldQnAutoCntLabObs]]}
 </t>
   </si>
   <si>
-    <t>shr-lab-LOINC-30229-9</t>
-  </si>
-  <si>
-    <t>LOINC-30229-9</t>
+    <t>shr-lab-NeutrophilsBandFormNCncPtBldQnAutoCntLabObs</t>
+  </si>
+  <si>
+    <t>NeutrophilsBandFormNCncPtBldQnAutoCntLabObs</t>
   </si>
   <si>
     <t>Band form neutrophils [#/​volume] in Blood by Automated count</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-lab-LOINC-30229-9]]}
+    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-lab-NeutrophilsBandFormNCncPtBldQnAutoCntLabObs]]}
 </t>
   </si>
   <si>
-    <t>shr-lab-LOINC-43743-4</t>
-  </si>
-  <si>
-    <t>LOINC-43743-4</t>
+    <t>shr-lab-LymphocytesVariantNCncPtBldQnAutoCntLabObs</t>
+  </si>
+  <si>
+    <t>LymphocytesVariantNCncPtBldQnAutoCntLabObs</t>
   </si>
   <si>
     <t>Variant lymphocytes [#/​volume] in Blood by Automated count. Units not required by LOINC but are strongly recommended.</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-lab-LOINC-43743-4]]}
+    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-lab-LymphocytesVariantNCncPtBldQnAutoCntLabObs]]}
 </t>
   </si>
   <si>
-    <t>shr-lab-LOINC-51383-8</t>
-  </si>
-  <si>
-    <t>LOINC-51383-8</t>
+    <t>shr-lab-LeukocytesOtherNCncPtBldQnAutoCntLabObs</t>
+  </si>
+  <si>
+    <t>LeukocytesOtherNCncPtBldQnAutoCntLabObs</t>
   </si>
   <si>
     <t>Leukocytes other [#/​volume] in Blood by Automated count. Units not required by LOINC but are strongly recommended.</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-lab-LOINC-51383-8]]}
+    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-lab-LeukocytesOtherNCncPtBldQnAutoCntLabObs]]}
 </t>
   </si>
   <si>
-    <t>shr-lab-LOINC-58443-3</t>
-  </si>
-  <si>
-    <t>LOINC-58443-3</t>
+    <t>shr-lab-OtherCellsNCncPtBldQnAutoCntLabObs</t>
+  </si>
+  <si>
+    <t>OtherCellsNCncPtBldQnAutoCntLabObs</t>
   </si>
   <si>
     <t>Other cells [#/​volume] in Blood by Automated count. Units not required by LOINC but are strongly recommended.</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-lab-LOINC-58443-3]]}
+    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-lab-OtherCellsNCncPtBldQnAutoCntLabObs]]}
 </t>
   </si>
   <si>
@@ -2099,7 +2099,7 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
     <col min="1" max="1" width="54.46484375" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="27.1953125" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="61.9921875" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="38.81640625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="5.8984375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="4.69921875" customWidth="true" bestFit="true"/>
